--- a/biology/Zoologie/Léon_Bertin/Léon_Bertin.xlsx
+++ b/biology/Zoologie/Léon_Bertin/Léon_Bertin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bertin</t>
+          <t>Léon_Bertin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Bertin est un zoologiste français, né le 8 avril 1896 à Paris 14e et mort le 5 février 1956 à Saint-Amand-de-Vendôme (Loir-et-Cher) dans un accident de voiture.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bertin</t>
+          <t>Léon_Bertin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'École normale supérieure à partir de 1914. Il obtient sa licence en sciences en 1917 et l'agrégation de sciences naturelles en 1920. Il obtient en 1925 son doctorat avec une thèse intitulée Recherches bionomiques, biométriques et systématiques sur les épinoches (Gastérostéidés). Bertin étudie notamment dans les laboratoires de géologie sous Alfred Lacroix (1863-1948) du Muséum national d'histoire naturelle de Paris et des invertébrés de Louis Eugène Bouvier (1856-1944). Après avoir été assistant à la faculté des sciences, il entre en 1938 au laboratoire d’herpétologie du Muséum national d'histoire naturelle de Paris sous la direction de Louis Roule (1861-1942). Il y succède à Jacques Pellegrin (1873-1944), parti à la retraite. Il dirige en 1949 la Société zoologique de France.
 Bertin est notamment l’auteur de L’Atlas des poissons marins, Regards sur la nature et ses mystères, La systématique et la biologie des épinoches (1921). Il est spécialiste de la faune abyssale.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bertin</t>
+          <t>Léon_Bertin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 La partie sur les poissons dans La Faune de la France en tableaux synoptiques illustrés de Rémy Perrier (Delagrave, Paris, 1924 ; réédité en 1980 puis en 1998).
